--- a/trunk/Docs/gantt.xlsx
+++ b/trunk/Docs/gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" tabRatio="145"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -264,6 +264,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -273,7 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -298,6 +318,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -606,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +953,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="12"/>
@@ -971,7 +995,9 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1002,11 +1028,6 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1049,8 +1070,10 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="8"/>
+      <c r="AC12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="13"/>
     </row>
     <row r="13" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
@@ -1078,10 +1101,6 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
@@ -1177,10 +1196,12 @@
       <c r="X16" s="14"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="8"/>
+      <c r="AA16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
     </row>
     <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
@@ -1212,12 +1233,9 @@
         <v>13</v>
       </c>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
+      <c r="AD17" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
@@ -1275,9 +1293,6 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="15" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
@@ -1382,7 +1397,9 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
-      <c r="AD22" s="8"/>
+      <c r="AD22" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
@@ -1415,9 +1432,6 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AD23" s="17" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="24" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
